--- a/atividadeform/documents/documents/media/Planilha_Prefeitura_de_Timon.xlsx
+++ b/atividadeform/documents/documents/media/Planilha_Prefeitura_de_Timon.xlsx
@@ -511,7 +511,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>7</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>20</v>
@@ -646,13 +646,13 @@
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="8" t="n"/>
       <c r="K4" s="6" t="n">
-        <v>13.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>12</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>25.93333333333333</v>
+        <v>27.3</v>
       </c>
       <c r="N4" s="6">
         <f> M4*L4</f>
@@ -683,7 +683,7 @@
         <v>4.99</v>
       </c>
       <c r="G5" s="11" t="n">
-        <v>8.982000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H5" s="12" t="n">
         <v>10</v>
@@ -691,13 +691,13 @@
       <c r="I5" s="9" t="n"/>
       <c r="J5" s="13" t="n"/>
       <c r="K5" s="11" t="n">
-        <v>6.666666666666666</v>
+        <v>7</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>5</v>
       </c>
       <c r="M5" s="11" t="n">
-        <v>15.64866666666667</v>
+        <v>16.1</v>
       </c>
       <c r="N5" s="11">
         <f> M5*L5</f>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>42.5</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>20</v>
@@ -740,13 +740,13 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="8" t="n"/>
       <c r="K6" s="6" t="n">
-        <v>13.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>15</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>89.83333333333333</v>
+        <v>91</v>
       </c>
       <c r="N6" s="6">
         <f> M6*L6</f>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="E7" s="9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="11" t="n">
         <v>2.19</v>
       </c>
       <c r="G7" s="11" t="n">
-        <v>3.942</v>
+        <v>4.2</v>
       </c>
       <c r="H7" s="12" t="n">
         <v>20</v>
@@ -785,13 +785,13 @@
       <c r="I7" s="9" t="n"/>
       <c r="J7" s="13" t="n"/>
       <c r="K7" s="11" t="n">
-        <v>13.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="L7" s="9" t="n">
         <v>30</v>
       </c>
       <c r="M7" s="11" t="n">
-        <v>17.27533333333333</v>
+        <v>18.2</v>
       </c>
       <c r="N7" s="11">
         <f> M7*L7</f>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>200</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>360</v>
+        <v>360.5</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>120</v>
@@ -834,13 +834,13 @@
       <c r="I8" s="4" t="n"/>
       <c r="J8" s="8" t="n"/>
       <c r="K8" s="6" t="n">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>5</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N8" s="6">
         <f> M8*L8</f>
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="E9" s="9" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="11" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="H9" s="12" t="n">
         <v>60</v>
@@ -883,13 +883,13 @@
       <c r="I9" s="9" t="n"/>
       <c r="J9" s="13" t="n"/>
       <c r="K9" s="11" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="L9" s="9" t="n">
         <v>20</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>54.4</v>
+        <v>55.3</v>
       </c>
       <c r="N9" s="11">
         <f> M9*L9</f>
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>7.16</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12.888</v>
+        <v>13.3</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>20</v>
@@ -928,13 +928,13 @@
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="8" t="n"/>
       <c r="K10" s="6" t="n">
-        <v>13.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>12</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26.22133333333333</v>
+        <v>27.3</v>
       </c>
       <c r="N10" s="6">
         <f> M10*L10</f>
@@ -1044,13 +1044,13 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>999</v>
+        <v>1091</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>321.58</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>578.8440000000001</v>
+        <v>643.3</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>180</v>
@@ -1058,13 +1058,13 @@
       <c r="I14" s="4" t="n"/>
       <c r="J14" s="8" t="n"/>
       <c r="K14" s="6" t="n">
-        <v>120</v>
+        <v>120.4</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>698.8440000000001</v>
+        <v>763.7</v>
       </c>
       <c r="N14" s="6">
         <f> M14*L14</f>
@@ -1091,7 +1091,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="11" t="n">
-        <v>360</v>
+        <v>360.5</v>
       </c>
       <c r="H15" s="12" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
       <c r="I15" s="9" t="n"/>
       <c r="J15" s="13" t="n"/>
       <c r="K15" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="L15" s="9" t="n">
         <v>5</v>
       </c>
       <c r="M15" s="11" t="n">
-        <v>360.6666666666667</v>
+        <v>361.2</v>
       </c>
       <c r="N15" s="11">
         <f> M15*L15</f>
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="E20" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6" t="n">
         <v>5.79</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>10.422</v>
+        <v>11.2</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>10</v>
@@ -1240,13 +1240,13 @@
       <c r="I20" s="4" t="n"/>
       <c r="J20" s="8" t="n"/>
       <c r="K20" s="6" t="n">
-        <v>6.666666666666666</v>
+        <v>7.2</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>10</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>17.08866666666667</v>
+        <v>18.4</v>
       </c>
       <c r="N20" s="6">
         <f> M20*L20</f>
@@ -1281,7 +1281,7 @@
         <v>239.63</v>
       </c>
       <c r="G21" s="11" t="n">
-        <v>431.334</v>
+        <v>432</v>
       </c>
       <c r="H21" s="12" t="n">
         <v>1</v>
@@ -1289,13 +1289,13 @@
       <c r="I21" s="9" t="n"/>
       <c r="J21" s="13" t="n"/>
       <c r="K21" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L21" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M21" s="11" t="n">
-        <v>432.0006666666667</v>
+        <v>432.8</v>
       </c>
       <c r="N21" s="11">
         <f> M21*L21</f>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="E25" s="9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="11" t="n">
         <v>12.25</v>
       </c>
       <c r="G25" s="11" t="n">
-        <v>22.05</v>
+        <v>22.4</v>
       </c>
       <c r="H25" s="12" t="n">
         <v>10</v>
@@ -1415,13 +1415,13 @@
       <c r="I25" s="9" t="n"/>
       <c r="J25" s="13" t="n"/>
       <c r="K25" s="11" t="n">
-        <v>6.666666666666666</v>
+        <v>7.2</v>
       </c>
       <c r="L25" s="9" t="n">
         <v>20</v>
       </c>
       <c r="M25" s="11" t="n">
-        <v>28.71666666666667</v>
+        <v>29.6</v>
       </c>
       <c r="N25" s="11">
         <f> M25*L25</f>
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E26" s="4" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>67.12</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>120.816</v>
+        <v>121.6</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>1</v>
@@ -1456,13 +1456,13 @@
       <c r="I26" s="4" t="n"/>
       <c r="J26" s="8" t="n"/>
       <c r="K26" s="6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>2</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>121.4826666666667</v>
+        <v>122.4</v>
       </c>
       <c r="N26" s="6">
         <f> M26*L26</f>
@@ -1576,13 +1576,13 @@
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>4</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>20</v>
@@ -1590,13 +1590,13 @@
       <c r="I30" s="4" t="n"/>
       <c r="J30" s="8" t="n"/>
       <c r="K30" s="6" t="n">
-        <v>13.33333333333333</v>
+        <v>13.6</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>300</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>20.53333333333333</v>
+        <v>21.6</v>
       </c>
       <c r="N30" s="6">
         <f> M30*L30</f>
@@ -1712,7 +1712,7 @@
         <v>2852.73</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>5134.914000000001</v>
+        <v>5135.2</v>
       </c>
       <c r="H34" s="7" t="n">
         <v>600</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5534.914000000001</v>
+        <v>5535.2</v>
       </c>
       <c r="N34" s="6">
         <f> M34*L34</f>
@@ -1846,7 +1846,7 @@
         <v>5.75</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>10.35</v>
+        <v>10.4</v>
       </c>
       <c r="H38" s="7" t="n">
         <v>200</v>
@@ -1854,13 +1854,13 @@
       <c r="I38" s="4" t="n"/>
       <c r="J38" s="8" t="n"/>
       <c r="K38" s="6" t="n">
-        <v>133.3333333333333</v>
+        <v>133.6</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>15</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>143.6833333333333</v>
+        <v>144</v>
       </c>
       <c r="N38" s="6">
         <f> M38*L38</f>
@@ -1891,7 +1891,7 @@
         <v>146.85</v>
       </c>
       <c r="G39" s="11" t="n">
-        <v>264.33</v>
+        <v>264.8</v>
       </c>
       <c r="H39" s="12" t="n">
         <v>1</v>
@@ -1899,13 +1899,13 @@
       <c r="I39" s="9" t="n"/>
       <c r="J39" s="13" t="n"/>
       <c r="K39" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L39" s="9" t="n">
         <v>2</v>
       </c>
       <c r="M39" s="11" t="n">
-        <v>264.9966666666667</v>
+        <v>265.6</v>
       </c>
       <c r="N39" s="11">
         <f> M39*L39</f>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="E43" s="9" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F43" s="11" t="n">
         <v>60</v>
       </c>
       <c r="G43" s="11" t="n">
-        <v>108</v>
+        <v>108.8</v>
       </c>
       <c r="H43" s="12" t="n">
         <v>30</v>
@@ -2025,13 +2025,13 @@
       <c r="I43" s="9" t="n"/>
       <c r="J43" s="13" t="n"/>
       <c r="K43" s="11" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="L43" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M43" s="11" t="n">
-        <v>128</v>
+        <v>129.6</v>
       </c>
       <c r="N43" s="11">
         <f> M43*L43</f>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="E48" s="4" t="n">
-        <v>6787</v>
+        <v>6788</v>
       </c>
       <c r="F48" s="6" t="n">
         <v>3245.24</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>5841.432</v>
+        <v>5841.9</v>
       </c>
       <c r="H48" s="7" t="n">
         <v>400</v>
@@ -2166,13 +2166,13 @@
       <c r="I48" s="4" t="n"/>
       <c r="J48" s="8" t="n"/>
       <c r="K48" s="6" t="n">
-        <v>266.6666666666667</v>
+        <v>267.3</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M48" s="6" t="n">
-        <v>6108.098666666667</v>
+        <v>6109.2</v>
       </c>
       <c r="N48" s="6">
         <f> M48*L48</f>
@@ -2292,7 +2292,7 @@
         <v>3561.99</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>6411.582</v>
+        <v>6411.6</v>
       </c>
       <c r="H52" s="7" t="n">
         <v>500</v>
@@ -2300,13 +2300,13 @@
       <c r="I52" s="4" t="n"/>
       <c r="J52" s="8" t="n"/>
       <c r="K52" s="6" t="n">
-        <v>333.3333333333334</v>
+        <v>333.9</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>5</v>
       </c>
       <c r="M52" s="6" t="n">
-        <v>6744.915333333333</v>
+        <v>6745.5</v>
       </c>
       <c r="N52" s="6">
         <f> M52*L52</f>
@@ -2353,13 +2353,13 @@
         <v>450</v>
       </c>
       <c r="K53" s="11" t="n">
-        <v>480</v>
+        <v>480.6</v>
       </c>
       <c r="L53" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M53" s="11" t="n">
-        <v>6060</v>
+        <v>6060.6</v>
       </c>
       <c r="N53" s="11">
         <f> M53*L53</f>
